--- a/Article Category Data/Categories2023-04-11 002352.972529.xlsx
+++ b/Article Category Data/Categories2023-04-11 002352.972529.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A543C-AE19-4476-87DC-4D7975FBD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502" count="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="384">
   <si>
     <t>title</t>
   </si>
@@ -230,7 +238,7 @@
     <t>https://jang.com.pk/news/1214108</t>
   </si>
   <si>
-    <t>گلوکار علی ظفر کا باکسر آغا کلیم کی مدد کا اعلان </t>
+    <t>گلوکار علی ظفر کا باکسر آغا کلیم کی مدد کا اعلان</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214097</t>
@@ -254,7 +262,7 @@
     <t>https://jang.com.pk/news/1214136</t>
   </si>
   <si>
-    <t>چیف الیکشن کمشنر کا اسپیکر اور چیئرمین سینیٹ کے نام خط </t>
+    <t>چیف الیکشن کمشنر کا اسپیکر اور چیئرمین سینیٹ کے نام خط</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214092</t>
@@ -266,7 +274,7 @@
     <t>https://jang.com.pk/news/1214135</t>
   </si>
   <si>
-    <t>وزیراعظم، کابینہ کیخلاف آرٹیکل 6 کی کارروائی ہوسکتی ہے، فواد چوہدری </t>
+    <t>وزیراعظم، کابینہ کیخلاف آرٹیکل 6 کی کارروائی ہوسکتی ہے، فواد چوہدری</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214127</t>
@@ -320,7 +328,7 @@
     <t>https://jang.com.pk/news/1214130</t>
   </si>
   <si>
-    <t>علی امین گنڈاپور کی راہداری ضمانت بعد از گرفتاری کی درخواستیں خارج </t>
+    <t>علی امین گنڈاپور کی راہداری ضمانت بعد از گرفتاری کی درخواستیں خارج</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214129</t>
@@ -362,7 +370,7 @@
     <t>https://jang.com.pk/news/1214039</t>
   </si>
   <si>
-    <t>اسلام کی خاطر شوبز چھوڑنے والے 13 معروف فنکار </t>
+    <t>اسلام کی خاطر شوبز چھوڑنے والے 13 معروف فنکار</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214040</t>
@@ -374,7 +382,7 @@
     <t>https://jang.com.pk/news/1214027</t>
   </si>
   <si>
-    <t>کرن جوہر کا اقربا پروری کے الزامات پر ردِعمل </t>
+    <t>کرن جوہر کا اقربا پروری کے الزامات پر ردِعمل</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214002</t>
@@ -386,7 +394,7 @@
     <t>https://jang.com.pk/news/1214010</t>
   </si>
   <si>
-    <t>فخر زمان کی سالگرہ پر قومی کھلاڑیوں کے پیغامات </t>
+    <t>فخر زمان کی سالگرہ پر قومی کھلاڑیوں کے پیغامات</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214105</t>
@@ -410,19 +418,19 @@
     <t>https://jang.com.pk/news/1213991</t>
   </si>
   <si>
-    <t> زمان خان کے یارکر سے حارث رؤف زخمی </t>
+    <t>زمان خان کے یارکر سے حارث رؤف زخمی</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213988</t>
   </si>
   <si>
-    <t>کھلاڑیوں کیساتھ انڈر اسٹینڈنگ ہے، رسپانس اچھا دے رہے ہیں، عمر گل </t>
+    <t>کھلاڑیوں کیساتھ انڈر اسٹینڈنگ ہے، رسپانس اچھا دے رہے ہیں، عمر گل</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213797</t>
   </si>
   <si>
-    <t>برطانیہ: ایمبولینس کا طویل انتظار، فوری طبی امداد کے مریض خود اسپتال پہنچنے پر مجبور </t>
+    <t>برطانیہ: ایمبولینس کا طویل انتظار، فوری طبی امداد کے مریض خود اسپتال پہنچنے پر مجبور</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214124</t>
@@ -494,7 +502,7 @@
     <t>https://jang.com.pk/news/1213863</t>
   </si>
   <si>
-    <t>دبئی میں مستحقین کو خوراک کا عطیہ کرنیکی ’’منفرد مہم‘‘ ایک گاڑی کی رجسٹریشن چار ارب 18 کروڑ روپے میں نیلام </t>
+    <t>دبئی میں مستحقین کو خوراک کا عطیہ کرنیکی ’’منفرد مہم‘‘ ایک گاڑی کی رجسٹریشن چار ارب 18 کروڑ روپے میں نیلام</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213864</t>
@@ -503,7 +511,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>الیکشن کمیشن کو مزید بااختیار بنانے کیلئے 57(1) اور 58 میں ترمیم کی سفارش </t>
+    <t>الیکشن کمیشن کو مزید بااختیار بنانے کیلئے 57(1) اور 58 میں ترمیم کی سفارش</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213865</t>
@@ -515,19 +523,19 @@
     <t>https://jang.com.pk/news/1213866</t>
   </si>
   <si>
-    <t>شہزادوں کے مسائل کچھ اور، عوام نان شبینہ کے محتاج، سراج الحق </t>
+    <t>شہزادوں کے مسائل کچھ اور، عوام نان شبینہ کے محتاج، سراج الحق</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213867</t>
   </si>
   <si>
-    <t>امریکی وزیر خارجہ پاکستان میں جمہوری آزادی کیلئے دباؤ ڈالیں، رکن کانگریس </t>
+    <t>امریکی وزیر خارجہ پاکستان میں جمہوری آزادی کیلئے دباؤ ڈالیں، رکن کانگریس</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213868</t>
   </si>
   <si>
-    <t>جسٹس عیسیٰ کیخلاف ریفرنس واپسی کی درخواست، چیف جسٹس آج سماعت کرینگے </t>
+    <t>جسٹس عیسیٰ کیخلاف ریفرنس واپسی کی درخواست، چیف جسٹس آج سماعت کرینگے</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1213869</t>
@@ -1160,383 +1168,41 @@
     <t>https://www.bbc.com/urdu/articles/c03k2ez78p1o</t>
   </si>
   <si>
-    <t>موبائل فون بیٹری کے دورانیے کو بڑھانے کے آسان طریقے</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200460/</t>
-  </si>
-  <si>
-    <t>ڈراما انڈسٹری کےنامور اداکار طارق جمیل پراچہ انتقال کر گئے</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200505/</t>
-  </si>
-  <si>
-    <t>نیوزی لینڈ کرکٹ ٹیم کا دورۂ پاکستان: عالمی معیار کی سیکیورٹی فراہم کریں گے، اسلام آباد پولیس</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200508/</t>
-  </si>
-  <si>
-    <t>مرد حضرات اپنی جلد کا خیال کیسے رکھیں؟</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200521/</t>
-  </si>
-  <si>
-    <t>جسٹس عیسیٰ کےخلاف ریفرنس واپسی کی درخواست پر سماعت چیف جسٹس کریں گے</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200494/</t>
-  </si>
-  <si>
-    <t>زمان خان نے ڈیتھ اوور میں اچھی بولنگ کرنا کس سے سیکھا؟</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1213785</t>
-  </si>
-  <si>
-    <t>انگلینڈ کیخلاف ہوم سریز میں منتخب نہ ہونے پر افسوس ہوا تھا، محمد عباس</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1213776</t>
-  </si>
-  <si>
-    <t>امریکا میں خرگوش نے پولیس فورس جوائن کرلی</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2467220/509</t>
-  </si>
-  <si>
-    <t>وہ بندر جس کا پسندیدہ مشغلہ اپنی مالکن کا موبائل استعمال کرنا ہے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466954/509</t>
-  </si>
-  <si>
-    <t>نظامِ شمسی کے ساتویں سیارے یورینس کی تفصیلی تصویر جاری</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466363/508</t>
-  </si>
-  <si>
-    <t>اب واٹس ایپ پر میسجز کے جواب ’چیٹ جی پی ٹی‘ دے گا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466934/508</t>
-  </si>
-  <si>
-    <t>آنکھوں کیلئے کون کون سے وٹامنز مفید ہیں؟</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2467148/9812</t>
-  </si>
-  <si>
-    <t>سفارتی مشن کی بحالی کیلئے سعودی وفد ایران پہنچ گیا</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/saudi-delegation-reached-iran-to-restore-the-diplomatic-mission/</t>
-  </si>
-  <si>
-    <t>بھارت میں کورونا وائرس کے کیسز میں اچانک اضافہ، حفاظتی اقدامات سخت</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/sudden-increase-in-cases-of-corona-virus-in-india-safety-measures-are-strict/</t>
-  </si>
-  <si>
-    <t>رمضان میں مسجد نبوی کے زائرین کی تعداد ڈیڑھ کروڑ تک پہنچ گئی</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/in-ramadan-the-number-of-visitors-to-masjid-nabawi-reached-one-and-a-half-million/</t>
-  </si>
-  <si>
-    <t>حافظ نعیم کا گورنر سندھ کے پکوڑے تلنے کی ویڈیو پر تبصرہ</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/hafiz-naeem-95/</t>
-  </si>
-  <si>
-    <t>فیس بک میسنجر پر ویڈیو گیمز کھیلنے کی زبردست سہولت</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/games-on-facebook-messenger/</t>
-  </si>
-  <si>
-    <t>اہم اور برے عوام نہیں خواص ہیں</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/230409-03-9/</t>
-  </si>
-  <si>
-    <t>عمران خان کی حکومت کے خاتمے کا ایک سال: سیاسی میدان میں کس نے  کیا کھویا اور  کیا پایا؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cmlzp8wkrweo</t>
-  </si>
-  <si>
-    <t>بابا ویٹ: ’دریا دل‘ انگریز پولیس افسر جن کی سخاوت کے قصے آج بھی چکوال میں مشہور ہیں  </t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c2v3z2wjwewo</t>
-  </si>
-  <si>
-    <t>پروجیکٹ ٹائیگر کے 50 سال اور انڈین وزیر اعظم مودی کی تصاویر پر مباحثہ</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c99dex5wqdxo</t>
-  </si>
-  <si>
-    <t>مسٹر انڈیا میں ستیش کوشک کے کردار ’کیلنڈر‘ کا تعلق پاکستان اور جنرل ضیا الحق سے کیسے ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cv2jzn71d70o</t>
-  </si>
-  <si>
-    <t>وہ پائلٹس جو طیارے سے زیر آب ایجیکٹ کرنے کے بعد بھی حیران کن طور پر زندہ بچ گئے</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/crgel1v2vgyo</t>
-  </si>
-  <si>
-    <t>مولانا رومی: ’مستقبل کے شاعر‘ جن کا موازنہ دیوتاؤں اور مقدس شخصیات سے کیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/czrv1llkgevo</t>
-  </si>
-  <si>
-    <t>آپ کا فون زلزلے کی پیش گوئی کیسے کر سکتا ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c0j79nn2lqjo</t>
-  </si>
-  <si>
-    <t>ٹیکنالوجی کی دنیا میں کوڈنگ کرنے کے لیے اپنی ملازمتیں چھوڑنے والی خواتین</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cz9j2jm0jdno</t>
-  </si>
-  <si>
-    <t>آپ کا موبائل فون دل کی بیماری کی علامات کیسے بتا سکتا ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c19w278m920o</t>
-  </si>
-  <si>
-    <t>یوٹیوبرز کی ایک ماہ میں کتنی آمدنی ہوتی ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200441/</t>
-  </si>
-  <si>
-    <t>گھر سے باہر جانے سے قبل سَن اسکرین کا استعمال لازمی کریں</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200438/</t>
-  </si>
-  <si>
-    <t>طویل دورانیے کی بورنگ یوٹیوب ویڈیوز کا خلاصہ کرنے والی اے آئی ویب سائٹ وائرل</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200454/</t>
-  </si>
-  <si>
-    <t>سب سے زیادہ جوڑوں کو چٹخانے کا عالمی ریکارڈ</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466808/509</t>
-  </si>
-  <si>
-    <t>مصنوعی ذہانت، چیٹ جی پی ٹی اور کامیابی؟</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466597/464</t>
-  </si>
-  <si>
-    <t>عیدالفطر پر کتنی چھٹیاں دی جائیں گی؟</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/08/eid-holidays-2/</t>
-  </si>
-  <si>
-    <t>مسافر طیارے پر لیزر لائٹ فائر کرنے پر 2 سال کی سزا    </t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/08/lazer-light-on-passenger-plane/</t>
-  </si>
-  <si>
-    <t>پہلے سعودی خاتون اور مرد آئندہ ماہ خلائی مشن پر روانہ ہوں گے</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/08/saudi-15/</t>
-  </si>
-  <si>
-    <t>بحرانوں میں مبتلا ملک کے لیے عطائی نسخے،اسامہ تنولی</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/08/%d8%a8%d8%ad%d8%b1%d8%a7%d9%86%d9%88%da%ba-%d9%85%db%8c%da%ba-%d9%85%d8%a8%d8%aa%d9%84%d8%a7-%d9%85%d9%84%da%a9-%da%a9%db%92-%d9%84%db%8c%db%92-%d8%b9%d8%b7%d8%a7%d8%a6%db%8c-%d9%86%d8%b3%d8%ae%db%92/</t>
-  </si>
-  <si>
-    <t>خواتین کے لیے تضحیک آمیز رویے: ’دفتر تیار ہو کر گئی تو باس نے کہا آپ مجھ سے پروموشن لینے آئی ہیں؟‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/clj7e7026d7o</t>
-  </si>
-  <si>
-    <t>سرکاری خرچ پر بھرتی سوشل میڈیا انفلوئنسرز جن کے ’ایک ہزار فیس بُک فرینڈز ہونا لازم تھا‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c1ekdqq4xx9o</t>
-  </si>
-  <si>
-    <t>انڈیا چین کے خلاف جارحانہ حکمت عملی اپنانے سے کیوں ہچکچاتا ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cxep3jdlr64o</t>
-  </si>
-  <si>
-    <t>لکھنؤ سپر جائنٹس کی جیت اور ’ادب سے ہرانے‘ کی بازگشت: ’لکھنؤ سے ہیں میاں پہلے ادب سیکھتے ہیں، پھر چلنا‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cz5pedm5xk8o</t>
-  </si>
-  <si>
-    <t>ہماری دیکھا دیکھی نوجوان اداکار اپنی فیس بڑھاتے ہیں، یہ اور بات ہے کہ ان کی فلمیں چل نہیں رہیں: سلمان خان</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c04v05vjld3o</t>
-  </si>
-  <si>
-    <t>شرمین عبید ’سٹار وارز‘ کی پہلی خاتون ہدایتکار: ’میں نے اپنی زندگی اصل ہیروز سے ملتے ہوئے گزاری‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/ck5exxxr625o</t>
-  </si>
-  <si>
-    <t>یورینس کی نئی حیرت انگیز تصویر جس میں اس کے روشن رنگز پر ’جگمگاتی انگوٹھیوں‘ کا گمان ہوتا ہے</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cekrmk8znm7o</t>
-  </si>
-  <si>
-    <t>عالمی ریکارڈ یافتہ پاکستانی امپائر علیم ڈار آئی سی سی ایلیٹ پینل سے ریٹائر</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200421/</t>
-  </si>
-  <si>
-    <t>ادرک کے حیران کن فوائد جو شاید آپ نہیں جانتے !</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200408/</t>
-  </si>
-  <si>
-    <t>آرمی چیف، ان کے اہل خانہ کی ذاتی معلومات تک رسائی کی تحقیقات کا حکم</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200380/</t>
-  </si>
-  <si>
-    <t>امریکی خاندان میں 138 سال بعد پہلی بیٹی کی پیدائش</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200391/</t>
-  </si>
-  <si>
-    <t>رمضان المبارک کو سیاست کی بھینٹ مت چڑھائیے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466201/464</t>
-  </si>
-  <si>
-    <t>قدرتی آفات میں اضافہ، ماحول دشمن کوئلے کا استعمال بھی جاری</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/07/climate-change-4/</t>
-  </si>
-  <si>
-    <t>ٹوئٹر نے تمام اکائونٹس کو ان فالو کردیا</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/07/twitter-unfollowed-all-accounts/</t>
-  </si>
-  <si>
-    <t>زنگ آلود ذہن، ڈگری مافیا اور بے روزگاری</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2465584/464</t>
-  </si>
-  <si>
-    <t>ٹائم میگزین کے سرورق پر عمران خان کی تصویر، حامی مضمون کے متن پر برہم</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200235/</t>
-  </si>
-  <si>
-    <t>’مستقبل میں لوگ 140 سال کی عمر تک زندہ رہ سکیں گے‘</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200236/</t>
-  </si>
-  <si>
-    <t>ٹیکنالوجی کا استعمال: نئی دنیا کا سفر</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2465217/464</t>
-  </si>
-  <si>
-    <t>زبیدہ بنت جعفر: جب عباسی ملکہ نے لاکھوں دینار کی نہر بنوا کر کہا ’حساب قیامت کے دن پر چھوڑتی ہوں‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c2v31exl78no</t>
-  </si>
-  <si>
-    <t>’شفا‘: وہ خاتون جنھیں ان کی کاروباری ذہانت کی بدولت اسلام کی ’پہلی مارکیٹ منتظم‘ مقرر کیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cye4pylwep0o</t>
-  </si>
-  <si>
-    <t>گجرات میں احمدی ڈاکٹر کا قتل اور اُن کے مبینہ قاتل کی خودکشی کا معمہ جو سلجھنے کا نام نہیں لے رہا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cd1y7qx1v0ko</t>
-  </si>
-  <si>
-    <t>خون آلود سیٹ پر ارشد شریف کے بال، گولیوں کی ٹائمنگ اور آئی فون: متضاد دعوے اور تحقیقات سے جڑے اہم  سوال</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cg3j3ngvv2jo</t>
-  </si>
-  <si>
-    <t>معاشرے میں خواتین کی تضحیک یعنی ’مساجنی‘ عام کیوں؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cy7n155dvppo</t>
-  </si>
-  <si>
-    <t>مصنوعی ذہانت: کیا اصلی اور نقلی کا فرق مٹ جائے گا؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cl5xel4p7e1o</t>
+    <t>other? World?</t>
+  </si>
+  <si>
+    <t>world/health</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1551,32 +1217,338 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.574285714285715" customWidth="1"/>
-    <col min="2" max="2" width="5.144285714285714" customWidth="1"/>
-    <col min="3" max="3" width="9.574285714285713" customWidth="1"/>
+    <col min="1" max="1" width="94.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,10 +1558,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1677,7 +1647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1710,7 +1680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1732,7 +1702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1743,18 +1713,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1765,7 +1735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1776,7 +1746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1787,7 +1757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1798,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1809,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1820,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1831,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1853,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1864,18 +1834,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1886,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1897,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1908,7 +1881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1919,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1930,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1941,7 +1914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1952,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1963,7 +1936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1974,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1985,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1996,7 +1969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -2007,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -2018,7 +1991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2029,7 +2002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2040,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2051,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2062,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2073,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -2084,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2095,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2106,18 +2079,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>105</v>
       </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -2128,18 +2104,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -2150,29 +2129,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
       <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -2183,7 +2168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -2194,7 +2179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -2205,7 +2190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -2216,7 +2201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -2227,7 +2212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2238,7 +2223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2249,7 +2234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2260,18 +2245,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
       <c r="B63" t="s">
         <v>133</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -2282,7 +2270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -2293,7 +2281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -2304,7 +2292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -2315,7 +2303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -2326,7 +2314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -2337,7 +2325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -2348,7 +2336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -2359,7 +2347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -2370,7 +2358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -2381,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -2392,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -2403,18 +2391,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
       <c r="B76" t="s">
         <v>159</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -2425,7 +2416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -2436,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -2447,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -2458,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -2469,7 +2460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -2480,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -2491,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -2502,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -2513,7 +2504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -2524,7 +2515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -2535,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -2546,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -2557,7 +2548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -2568,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -2579,7 +2570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -2590,7 +2581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -2601,7 +2592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -2612,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -2623,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -2634,7 +2625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -2645,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -2656,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -2667,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -2678,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -2689,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -2700,29 +2691,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>213</v>
       </c>
       <c r="B103" t="s">
         <v>214</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>215</v>
       </c>
       <c r="B104" t="s">
         <v>216</v>
       </c>
-      <c r="C104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -2733,7 +2724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -2744,7 +2735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -2755,7 +2746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -2766,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -2777,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -2788,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -2799,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -2810,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -2821,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -2832,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -2843,7 +2834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -2854,7 +2845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -2865,7 +2856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>243</v>
       </c>
@@ -2876,7 +2867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -2887,7 +2878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -2898,7 +2889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -2909,7 +2900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>251</v>
       </c>
@@ -2920,7 +2911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -2931,18 +2922,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>255</v>
       </c>
       <c r="B124" t="s">
         <v>256</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>257</v>
       </c>
@@ -2953,18 +2944,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>259</v>
       </c>
       <c r="B126" t="s">
         <v>260</v>
       </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -2975,7 +2969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -2986,7 +2980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -3008,7 +3002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>269</v>
       </c>
@@ -3019,7 +3013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>271</v>
       </c>
@@ -3030,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -3041,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -3052,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>277</v>
       </c>
@@ -3063,7 +3057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -3074,7 +3068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -3085,7 +3079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -3096,18 +3090,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>285</v>
       </c>
       <c r="B139" t="s">
         <v>286</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>287</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -3129,7 +3123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -3140,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>293</v>
       </c>
@@ -3151,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -3162,7 +3156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>297</v>
       </c>
@@ -3173,7 +3167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -3184,7 +3178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>301</v>
       </c>
@@ -3195,29 +3189,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>303</v>
       </c>
       <c r="B148" t="s">
         <v>304</v>
       </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="C148" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>305</v>
       </c>
       <c r="B149" t="s">
         <v>306</v>
       </c>
-      <c r="C149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -3228,7 +3222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -3239,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -3250,7 +3244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -3261,7 +3255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>315</v>
       </c>
@@ -3272,7 +3266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -3283,7 +3277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -3305,7 +3299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -3316,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -3327,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>269</v>
       </c>
@@ -3338,18 +3332,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>328</v>
       </c>
       <c r="B161" t="s">
         <v>329</v>
       </c>
-      <c r="C161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>330</v>
       </c>
@@ -3360,29 +3357,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
       <c r="B163" t="s">
         <v>333</v>
       </c>
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="C163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>334</v>
       </c>
       <c r="B164" t="s">
         <v>335</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="165">
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -3415,29 +3418,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>342</v>
       </c>
       <c r="B168" t="s">
         <v>343</v>
       </c>
-      <c r="C168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
       <c r="B169" t="s">
         <v>345</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="170">
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>348</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>350</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>354</v>
       </c>
@@ -3492,29 +3498,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
       <c r="B175" t="s">
         <v>357</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="176">
+      <c r="D175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>358</v>
       </c>
       <c r="B176" t="s">
         <v>359</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="177">
+      <c r="D176" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -3525,18 +3537,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>362</v>
       </c>
       <c r="B178" t="s">
         <v>363</v>
       </c>
-      <c r="C178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="C178" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>364</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>366</v>
       </c>
@@ -3558,18 +3570,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
       <c r="B181" t="s">
         <v>369</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="182">
+      <c r="D181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -3580,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -3591,29 +3606,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>374</v>
       </c>
       <c r="B184" t="s">
         <v>375</v>
       </c>
-      <c r="C184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="C184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>376</v>
       </c>
       <c r="B185" t="s">
         <v>377</v>
       </c>
-      <c r="C185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="C185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -3624,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>380</v>
       </c>
@@ -3635,669 +3656,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>382</v>
-      </c>
-      <c r="B188" t="s">
-        <v>383</v>
-      </c>
-      <c r="C188" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>384</v>
-      </c>
-      <c r="B189" t="s">
-        <v>385</v>
-      </c>
-      <c r="C189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>386</v>
-      </c>
-      <c r="B190" t="s">
-        <v>387</v>
-      </c>
-      <c r="C190" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191" t="s">
-        <v>389</v>
-      </c>
-      <c r="C191" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>390</v>
-      </c>
-      <c r="B192" t="s">
-        <v>391</v>
-      </c>
-      <c r="C192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>392</v>
-      </c>
-      <c r="B193" t="s">
-        <v>393</v>
-      </c>
-      <c r="C193" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>394</v>
-      </c>
-      <c r="B194" t="s">
-        <v>395</v>
-      </c>
-      <c r="C194" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195" t="s">
-        <v>397</v>
-      </c>
-      <c r="C195" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>398</v>
-      </c>
-      <c r="B196" t="s">
-        <v>399</v>
-      </c>
-      <c r="C196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>400</v>
-      </c>
-      <c r="B197" t="s">
-        <v>401</v>
-      </c>
-      <c r="C197" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>402</v>
-      </c>
-      <c r="B198" t="s">
-        <v>403</v>
-      </c>
-      <c r="C198" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>404</v>
-      </c>
-      <c r="B199" t="s">
-        <v>405</v>
-      </c>
-      <c r="C199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>406</v>
-      </c>
-      <c r="B200" t="s">
-        <v>407</v>
-      </c>
-      <c r="C200" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>408</v>
-      </c>
-      <c r="B201" t="s">
-        <v>409</v>
-      </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>410</v>
-      </c>
-      <c r="B202" t="s">
-        <v>411</v>
-      </c>
-      <c r="C202" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>412</v>
-      </c>
-      <c r="B203" t="s">
-        <v>413</v>
-      </c>
-      <c r="C203" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>414</v>
-      </c>
-      <c r="B204" t="s">
-        <v>415</v>
-      </c>
-      <c r="C204" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>416</v>
-      </c>
-      <c r="B205" t="s">
-        <v>417</v>
-      </c>
-      <c r="C205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>418</v>
-      </c>
-      <c r="B206" t="s">
-        <v>419</v>
-      </c>
-      <c r="C206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>420</v>
-      </c>
-      <c r="B207" t="s">
-        <v>421</v>
-      </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>422</v>
-      </c>
-      <c r="B208" t="s">
-        <v>423</v>
-      </c>
-      <c r="C208" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>424</v>
-      </c>
-      <c r="B209" t="s">
-        <v>425</v>
-      </c>
-      <c r="C209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>426</v>
-      </c>
-      <c r="B210" t="s">
-        <v>427</v>
-      </c>
-      <c r="C210" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>428</v>
-      </c>
-      <c r="B211" t="s">
-        <v>429</v>
-      </c>
-      <c r="C211" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>430</v>
-      </c>
-      <c r="B212" t="s">
-        <v>431</v>
-      </c>
-      <c r="C212" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>432</v>
-      </c>
-      <c r="B213" t="s">
-        <v>433</v>
-      </c>
-      <c r="C213" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>434</v>
-      </c>
-      <c r="B214" t="s">
-        <v>435</v>
-      </c>
-      <c r="C214" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>436</v>
-      </c>
-      <c r="B215" t="s">
-        <v>437</v>
-      </c>
-      <c r="C215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>438</v>
-      </c>
-      <c r="B216" t="s">
-        <v>439</v>
-      </c>
-      <c r="C216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>440</v>
-      </c>
-      <c r="B217" t="s">
-        <v>441</v>
-      </c>
-      <c r="C217" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>442</v>
-      </c>
-      <c r="B218" t="s">
-        <v>443</v>
-      </c>
-      <c r="C218" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>444</v>
-      </c>
-      <c r="B219" t="s">
-        <v>445</v>
-      </c>
-      <c r="C219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>446</v>
-      </c>
-      <c r="B220" t="s">
-        <v>447</v>
-      </c>
-      <c r="C220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>448</v>
-      </c>
-      <c r="B221" t="s">
-        <v>449</v>
-      </c>
-      <c r="C221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>450</v>
-      </c>
-      <c r="B222" t="s">
-        <v>451</v>
-      </c>
-      <c r="C222" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>452</v>
-      </c>
-      <c r="B223" t="s">
-        <v>453</v>
-      </c>
-      <c r="C223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>454</v>
-      </c>
-      <c r="B224" t="s">
-        <v>455</v>
-      </c>
-      <c r="C224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>456</v>
-      </c>
-      <c r="B225" t="s">
-        <v>457</v>
-      </c>
-      <c r="C225" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>458</v>
-      </c>
-      <c r="B226" t="s">
-        <v>459</v>
-      </c>
-      <c r="C226" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>460</v>
-      </c>
-      <c r="B227" t="s">
-        <v>461</v>
-      </c>
-      <c r="C227" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>462</v>
-      </c>
-      <c r="B228" t="s">
-        <v>463</v>
-      </c>
-      <c r="C228" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>464</v>
-      </c>
-      <c r="B229" t="s">
-        <v>465</v>
-      </c>
-      <c r="C229" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>466</v>
-      </c>
-      <c r="B230" t="s">
-        <v>467</v>
-      </c>
-      <c r="C230" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>468</v>
-      </c>
-      <c r="B231" t="s">
-        <v>469</v>
-      </c>
-      <c r="C231" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>470</v>
-      </c>
-      <c r="B232" t="s">
-        <v>471</v>
-      </c>
-      <c r="C232" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>472</v>
-      </c>
-      <c r="B233" t="s">
-        <v>473</v>
-      </c>
-      <c r="C233" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>474</v>
-      </c>
-      <c r="B234" t="s">
-        <v>475</v>
-      </c>
-      <c r="C234" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>476</v>
-      </c>
-      <c r="B235" t="s">
-        <v>477</v>
-      </c>
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>478</v>
-      </c>
-      <c r="B236" t="s">
-        <v>479</v>
-      </c>
-      <c r="C236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>480</v>
-      </c>
-      <c r="B237" t="s">
-        <v>481</v>
-      </c>
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>482</v>
-      </c>
-      <c r="B238" t="s">
-        <v>483</v>
-      </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>484</v>
-      </c>
-      <c r="B239" t="s">
-        <v>485</v>
-      </c>
-      <c r="C239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>486</v>
-      </c>
-      <c r="B240" t="s">
-        <v>487</v>
-      </c>
-      <c r="C240" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>488</v>
-      </c>
-      <c r="B241" t="s">
-        <v>489</v>
-      </c>
-      <c r="C241" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>490</v>
-      </c>
-      <c r="B242" t="s">
-        <v>491</v>
-      </c>
-      <c r="C242" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>492</v>
-      </c>
-      <c r="B243" t="s">
-        <v>493</v>
-      </c>
-      <c r="C243" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>494</v>
-      </c>
-      <c r="B244" t="s">
-        <v>495</v>
-      </c>
-      <c r="C244" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>496</v>
-      </c>
-      <c r="B245" t="s">
-        <v>497</v>
-      </c>
-      <c r="C245" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>498</v>
-      </c>
-      <c r="B246" t="s">
-        <v>499</v>
-      </c>
-      <c r="C246" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>500</v>
-      </c>
-      <c r="B247" t="s">
-        <v>501</v>
-      </c>
-      <c r="C247" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Article Category Data/Categories2023-04-11 002352.972529.xlsx
+++ b/Article Category Data/Categories2023-04-11 002352.972529.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A543C-AE19-4476-87DC-4D7975FBD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC0ED5-867C-439B-A7DA-148D4F47194D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
       <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
